--- a/Lenings Mrt2018 - Feb2019.xlsx
+++ b/Lenings Mrt2018 - Feb2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="2018_JAN" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,6 +396,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>43149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,77 +507,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -472,86 +587,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>